--- a/Nederland_Data_Files/Nederland_Routes.xlsx
+++ b/Nederland_Data_Files/Nederland_Routes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a684b2255d33441d/Data_science_projects/Ticket_To_Ride/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cr7bo\OneDrive\Data_science_projects\Ticket_To_Ride\Nederland_Data_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="ED5C7CE92DAD2E2086B2441E966724D344F6D5A9" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{893A5065-3CC7-42A5-A58D-32C4594CCDF6}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="ED5C7CE92DAD2E2086B2441E966724D344F6D5A9" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{AF3EAF3E-2CAF-40EF-AA97-C7984A9D1EF5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{29222588-3C0C-4B51-932B-EFCF93AAEA45}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{29222588-3C0C-4B51-932B-EFCF93AAEA45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2659,7 +2659,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
